--- a/2016昆山幼儿园科技/模板/裁判用表模板.xlsx
+++ b/2016昆山幼儿园科技/模板/裁判用表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="9" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="10" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" state="hidden" r:id="rId4"/>
@@ -14,9 +14,10 @@
     <sheet name="成绩册" sheetId="5" state="hidden" r:id="rId8"/>
     <sheet name="成绩册封面" sheetId="6" state="hidden" r:id="rId9"/>
     <sheet name="备注 " sheetId="7" state="hidden" r:id="rId10"/>
-    <sheet name="A1" sheetId="8" r:id="rId11"/>
-    <sheet name="B1" sheetId="9" r:id="rId12"/>
-    <sheet name="B2" sheetId="10" r:id="rId13"/>
+    <sheet name="常见错误" sheetId="8" state="hidden" r:id="rId11"/>
+    <sheet name="A1" sheetId="9" r:id="rId12"/>
+    <sheet name="B1" sheetId="10" r:id="rId13"/>
+    <sheet name="B2" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>名称</t>
   </si>
@@ -428,7 +429,10 @@
     <t>高分低分用时短</t>
   </si>
   <si>
-    <t>一等奖 0.2 二等奖 0.3 三等奖 0.5</t>
+    <t>一等奖 0.1 二等奖 0.2 三等奖 0.5</t>
+  </si>
+  <si>
+    <t>两轮高分低分</t>
   </si>
   <si>
     <t>标题行高</t>
@@ -605,20 +609,10 @@
     <t>[奖项]</t>
   </si>
   <si>
-    <t>第一轮
-得分 时间</t>
-  </si>
-  <si>
     <t>[成绩2]</t>
   </si>
   <si>
-    <t>[成绩排序]</t>
-  </si>
-  <si>
-    <t>成绩公示</t>
-  </si>
-  <si>
-    <t>2016.6 昆山市青少年宫</t>
+    <t>成绩册</t>
   </si>
   <si>
     <t>先设置好 分组 再设置 编号</t>
@@ -631,6 +625,33 @@
   </si>
   <si>
     <t>自定义成绩册方法：表名如“成绩册A1”，放在此文件中</t>
+  </si>
+  <si>
+    <t>表名/动作</t>
+  </si>
+  <si>
+    <t>错误现象</t>
+  </si>
+  <si>
+    <t>错误原因</t>
+  </si>
+  <si>
+    <t>裁判用表</t>
+  </si>
+  <si>
+    <t>无选手数据，显示为模板表</t>
+  </si>
+  <si>
+    <t>首条数据行号填写是否正确</t>
+  </si>
+  <si>
+    <t>成绩计算</t>
+  </si>
+  <si>
+    <t>莫名错误</t>
+  </si>
+  <si>
+    <t>“成绩”表里的“用时长度”是否填写</t>
   </si>
 </sst>
 </file>
@@ -640,14 +661,23 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
-    <numFmt numFmtId="166" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="166" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;"/>
     <numFmt numFmtId="167" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="168" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="169" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -705,15 +735,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -754,17 +775,8 @@
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +788,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -803,7 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -839,50 +857,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="255" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -894,34 +915,34 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="167" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="167" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="168" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="168" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="169" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="169" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -930,13 +951,13 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -945,16 +966,16 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -975,34 +996,28 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1322,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="20" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1318,13 +1333,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1387,6 +1402,96 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customHeight="1" ht="30">
+      <c r="A1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customHeight="1" ht="25">
+      <c r="A2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="52"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -1400,58 +1505,58 @@
     <col min="5" max="5" width="8" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
     <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customHeight="1" ht="30">
-      <c r="A1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customHeight="1" ht="25">
+      <c r="A2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customHeight="1" ht="25">
-      <c r="A2" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="53"/>
+      <c r="F2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="52"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1477,69 +1582,69 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="20" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="true" style="43"/>
-    <col min="2" max="2" width="5.625" customWidth="true" style="44"/>
-    <col min="3" max="3" width="10.6" customWidth="true" style="28"/>
-    <col min="4" max="4" width="8.375" customWidth="true" style="43"/>
-    <col min="5" max="5" width="15.875" customWidth="true" style="43"/>
+    <col min="1" max="1" width="38.875" customWidth="true" style="44"/>
+    <col min="2" max="2" width="5.625" customWidth="true" style="45"/>
+    <col min="3" max="3" width="10.6" customWidth="true" style="29"/>
+    <col min="4" max="4" width="8.375" customWidth="true" style="44"/>
+    <col min="5" max="5" width="15.875" customWidth="true" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:5" customHeight="1" ht="21">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1568,7 +1673,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1578,90 +1683,92 @@
     <col min="3" max="3" width="9.125" customWidth="true" style="0"/>
     <col min="4" max="4" width="20.375" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29" customWidth="true" style="28"/>
+    <col min="6" max="6" width="29" customWidth="true" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="21">
-      <c r="F1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="19">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="20">
-      <c r="A3" s="39" t="str">
+      <c r="A3" s="40" t="str">
         <f>项目!A3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="40" t="str">
         <f>项目!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="20">
-      <c r="A4" s="39" t="str">
+      <c r="A4" s="40" t="str">
         <f>项目!A4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="40" t="str">
         <f>项目!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="41">
+        <v>4</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="20">
-      <c r="A5" s="39" t="str">
+      <c r="A5" s="40" t="str">
         <f>项目!A5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="40" t="str">
         <f>项目!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>30</v>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1810,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
@@ -1727,7 +1834,7 @@
     <col min="14" max="14" width="9.125" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.625" customWidth="true" style="0"/>
     <col min="16" max="16" width="6.75" customWidth="true" style="0"/>
-    <col min="17" max="17" width="4.125" customWidth="true" style="29"/>
+    <col min="17" max="17" width="4.125" customWidth="true" style="30"/>
     <col min="18" max="18" width="4.125" customWidth="true" style="0"/>
     <col min="19" max="19" width="4.125" customWidth="true" style="0"/>
     <col min="20" max="20" width="4.125" customWidth="true" style="0"/>
@@ -1746,446 +1853,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" customHeight="1" ht="23">
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:33" customHeight="1" ht="24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AF2" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A3" s="5" t="str">
+      <c r="AG2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A3" s="6" t="str">
         <f>项目!A3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <f>项目!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>25</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="16" t="str">
+      <c r="O3" s="16"/>
+      <c r="P3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="17" t="str">
         <f>SUM(R3:Y3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="16">
         <v>30</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="16">
         <v>6</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
         <v>8</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="16">
         <v>8</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="16">
         <v>20</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16">
         <v>12</v>
       </c>
-      <c r="Z3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="20" t="s">
+      <c r="Z3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20" t="s">
+      <c r="AA3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-    </row>
-    <row r="4" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A4" s="5" t="str">
+      <c r="AD3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+    </row>
+    <row r="4" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A4" s="6" t="str">
         <f>项目!A4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="6" t="str">
         <f>项目!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>25</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="33">
         <v>2</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="15" t="s">
+      <c r="M4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="16" t="str">
+      <c r="O4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="17" t="str">
         <f>SUM(R4:Y4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="16">
         <v>30</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="16">
         <v>6</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="16">
         <v>6</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="16">
         <v>8</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="16">
         <v>8</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="16">
         <v>15</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="16">
         <v>15</v>
       </c>
-      <c r="Y4" s="15">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="20" t="s">
+      <c r="Y4" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AA4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AB4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A5" s="5" t="str">
+      <c r="AD4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A5" s="6" t="str">
         <f>项目!A5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="6" t="str">
         <f>项目!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>25</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="15" t="s">
+      <c r="M5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="16" t="str">
+      <c r="O5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="17" t="str">
         <f>SUM(R5:Y5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="16">
         <v>30</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="16">
         <v>6</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="16">
         <v>6</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="16">
         <v>8</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="16">
         <v>8</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="16">
         <v>15</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="16">
         <v>15</v>
       </c>
-      <c r="Y5" s="15">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" s="20" t="s">
+      <c r="Y5" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AA5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AB5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" s="35" t="s">
-        <v>79</v>
+      <c r="AD5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:33" customHeight="1" ht="28">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
     </row>
     <row r="7" spans="1:33" customHeight="1" ht="28">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:33" customHeight="1" ht="28">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:33" customHeight="1" ht="28">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:33" customHeight="1" ht="28">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:33" customHeight="1" ht="28"/>
     <row r="12" spans="1:33" customHeight="1" ht="28"/>
@@ -2259,516 +2366,520 @@
   <sheetData>
     <row r="1" spans="1:33" customHeight="1" ht="23"/>
     <row r="2" spans="1:33" customHeight="1" ht="24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="W2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A3" s="9" t="str">
+      <c r="AG2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A3" s="10" t="str">
         <f>项目!A3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <f>项目!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="16" t="str">
+      <c r="L3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="17" t="str">
         <f>SUM(O3:W3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="18">
         <v>25</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="18">
         <v>6</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="18">
         <v>8</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="18">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="18">
         <v>8</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18">
         <v>5</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="18">
         <v>8</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="18">
         <v>5</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="20" t="s">
+      <c r="X3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="28"/>
-    </row>
-    <row r="4" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A4" s="9" t="str">
+      <c r="AE3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="29"/>
+    </row>
+    <row r="4" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A4" s="10" t="str">
         <f>项目!A4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="6" t="str">
         <f>项目!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="I4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="16" t="str">
+      <c r="L4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="17" t="str">
         <f>SUM(O4:W4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="18">
         <v>20</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="18">
         <v>6</v>
       </c>
-      <c r="Q4" s="17">
-        <v>30</v>
-      </c>
-      <c r="R4" s="17">
+      <c r="Q4" s="18">
+        <v>8</v>
+      </c>
+      <c r="R4" s="18">
         <v>12</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="18">
+        <v>16</v>
+      </c>
+      <c r="T4" s="18">
+        <v>16</v>
+      </c>
+      <c r="U4" s="18">
         <v>5</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17">
+      <c r="V4" s="18">
+        <v>8</v>
+      </c>
+      <c r="W4" s="18">
         <v>5</v>
       </c>
-      <c r="V4" s="17">
-        <v>8</v>
-      </c>
-      <c r="W4" s="17">
-        <v>5</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="20" t="s">
+      <c r="X4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="23" t="s">
+      <c r="AB4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AC4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="28"/>
-    </row>
-    <row r="5" spans="1:33" customHeight="1" ht="28" s="5" customFormat="1">
-      <c r="A5" s="9" t="str">
+      <c r="AE4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="29"/>
+    </row>
+    <row r="5" spans="1:33" customHeight="1" ht="28" s="6" customFormat="1">
+      <c r="A5" s="10" t="str">
         <f>项目!A5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="6" t="str">
         <f>项目!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="H5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="I5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="16" t="str">
+      <c r="L5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="17" t="str">
         <f>SUM(O5:W5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="17">
-        <v>20</v>
-      </c>
-      <c r="P5" s="17">
+      <c r="O5" s="18">
+        <v>25</v>
+      </c>
+      <c r="P5" s="18">
         <v>6</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="18">
         <v>8</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="18">
         <v>12</v>
       </c>
-      <c r="S5" s="17">
-        <v>16</v>
-      </c>
-      <c r="T5" s="17">
-        <v>16</v>
-      </c>
-      <c r="U5" s="17">
+      <c r="S5" s="18">
+        <v>10</v>
+      </c>
+      <c r="T5" s="18">
+        <v>10</v>
+      </c>
+      <c r="U5" s="18">
         <v>5</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="18">
         <v>8</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="18">
         <v>5</v>
       </c>
-      <c r="X5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="20" t="s">
+      <c r="X5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AA5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AB5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AD5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AD5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG5" s="28"/>
+      <c r="AE5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="29"/>
     </row>
     <row r="6" spans="1:33" customHeight="1" ht="28">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="28"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="29"/>
     </row>
     <row r="7" spans="1:33" customHeight="1" ht="28">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="28"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="29"/>
     </row>
     <row r="8" spans="1:33" customHeight="1" ht="28">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="28"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="29"/>
     </row>
     <row r="9" spans="1:33" customHeight="1" ht="28">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:33" customHeight="1" ht="28">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:33" customHeight="1" ht="28">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:33" customHeight="1" ht="28">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:33" customHeight="1" ht="28"/>
     <row r="14" spans="1:33" customHeight="1" ht="28"/>
@@ -2797,7 +2908,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="40" zoomScaleNormal="40" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2805,20 +2916,22 @@
     <col min="1" max="1" width="93.625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1" ht="230">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:7" customHeight="1" ht="211">
+      <c r="A1" s="2" t="str">
+        <f>全局!B3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" customHeight="1" ht="407">
-      <c r="A2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" customHeight="1" ht="33">
-      <c r="A3" s="4" t="s">
-        <v>95</v>
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" customHeight="1" ht="33.75">
+      <c r="A3" s="5" t="str">
+        <f>全局!B4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2840,34 +2953,35 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2887,6 +3001,95 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="true" style="0"/>
+    <col min="2" max="2" width="27.125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="38.25" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customHeight="1" ht="20">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customHeight="1" ht="20">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customHeight="1" ht="20"/>
+    <row r="5" spans="1:4" customHeight="1" ht="20"/>
+    <row r="6" spans="1:4" customHeight="1" ht="20"/>
+    <row r="7" spans="1:4" customHeight="1" ht="20"/>
+    <row r="8" spans="1:4" customHeight="1" ht="20"/>
+    <row r="9" spans="1:4" customHeight="1" ht="20"/>
+    <row r="10" spans="1:4" customHeight="1" ht="20"/>
+    <row r="11" spans="1:4" customHeight="1" ht="20"/>
+    <row r="12" spans="1:4" customHeight="1" ht="20"/>
+    <row r="13" spans="1:4" customHeight="1" ht="20"/>
+    <row r="14" spans="1:4" customHeight="1" ht="20"/>
+    <row r="15" spans="1:4" customHeight="1" ht="20"/>
+    <row r="16" spans="1:4" customHeight="1" ht="20"/>
+    <row r="17" spans="1:4" customHeight="1" ht="20"/>
+    <row r="18" spans="1:4" customHeight="1" ht="20"/>
+    <row r="19" spans="1:4" customHeight="1" ht="20"/>
+    <row r="20" spans="1:4" customHeight="1" ht="20"/>
+    <row r="21" spans="1:4" customHeight="1" ht="20"/>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555556" footer="0.51180555555556"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <tabColor rgb="FF000000"/>
@@ -2909,130 +3112,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="30">
-      <c r="A1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>71</v>
       </c>
+      <c r="F1" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="25">
-      <c r="A2" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <tabColor rgb="FF000000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="30">
-      <c r="A1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customHeight="1" ht="25">
-      <c r="A2" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
